--- a/epitweetr/inst/extdata/subscribers.xlsx
+++ b/epitweetr/inst/extdata/subscribers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real time Topics</t>
   </si>
   <si>
     <t xml:space="preserve">Regions</t>
@@ -142,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:F5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -172,6 +178,12 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/epitweetr/inst/extdata/subscribers.xlsx
+++ b/epitweetr/inst/extdata/subscribers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real time Regions</t>
   </si>
   <si>
     <t xml:space="preserve">Alert Slots</t>
@@ -148,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -159,7 +162,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,6 +188,9 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/epitweetr/inst/extdata/subscribers.xlsx
+++ b/epitweetr/inst/extdata/subscribers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Real time Regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert category</t>
   </si>
   <si>
     <t xml:space="preserve">Alert Slots</t>
@@ -53,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,16 +85,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -99,8 +116,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -124,47 +148,116 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF8E86AE"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I2"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,6 +285,86 @@
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/epitweetr/inst/extdata/subscribers.xlsx
+++ b/epitweetr/inst/extdata/subscribers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t xml:space="preserve">Alert Slots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One tweet alerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics ignoring 1 tweet alerts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regions ignoring 1 tweet alerts </t>
   </si>
 </sst>
 </file>
@@ -157,8 +166,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -247,20 +256,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:J3"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.67"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -287,6 +298,15 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,6 +319,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
@@ -310,6 +333,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2"/>
@@ -321,6 +347,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
@@ -332,6 +361,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2"/>
@@ -343,6 +375,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
@@ -354,6 +389,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
@@ -365,6 +403,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
